--- a/5조_기능차트 .xlsx
+++ b/5조_기능차트 .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\나\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\SIST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA0A4EC-3608-48C5-BA5E-7E882106F6E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FFFBFB-AE14-4C55-A7D8-401755C5E2E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12540" yWindow="690" windowWidth="18810" windowHeight="12885" xr2:uid="{2974035E-2AA2-4BF6-85E8-FABE50EF7EEC}"/>
+    <workbookView xWindow="225" yWindow="225" windowWidth="28800" windowHeight="11295" xr2:uid="{2974035E-2AA2-4BF6-85E8-FABE50EF7EEC}"/>
   </bookViews>
   <sheets>
     <sheet name="기능차트" sheetId="1" r:id="rId1"/>
@@ -6782,8 +6782,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="11095889" y="1078140"/>
-          <a:ext cx="160475" cy="3057034"/>
+          <a:off x="7401242" y="1045837"/>
+          <a:ext cx="155338" cy="2959170"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6797,10 +6797,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="3057034"/>
+                <a:pt x="0" y="2959170"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="160475" y="3057034"/>
+                <a:pt x="155338" y="2959170"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6841,8 +6841,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="11095889" y="1078140"/>
-          <a:ext cx="169812" cy="2492546"/>
+          <a:off x="7401242" y="1045837"/>
+          <a:ext cx="164376" cy="2412753"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6856,10 +6856,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="2492546"/>
+                <a:pt x="0" y="2412753"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="169812" y="2492546"/>
+                <a:pt x="164376" y="2412753"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6900,8 +6900,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="11095889" y="1078140"/>
-          <a:ext cx="169812" cy="1803579"/>
+          <a:off x="7401242" y="1045837"/>
+          <a:ext cx="164376" cy="1745842"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6915,10 +6915,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1803579"/>
+                <a:pt x="0" y="1745842"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="169812" y="1803579"/>
+                <a:pt x="164376" y="1745842"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6959,8 +6959,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="11095889" y="1078140"/>
-          <a:ext cx="169812" cy="1134296"/>
+          <a:off x="7401242" y="1045837"/>
+          <a:ext cx="164376" cy="1097984"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6974,10 +6974,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1134296"/>
+                <a:pt x="0" y="1097984"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="169812" y="1134296"/>
+                <a:pt x="164376" y="1097984"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -7018,8 +7018,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="11095889" y="1078140"/>
-          <a:ext cx="169812" cy="465012"/>
+          <a:off x="7401242" y="1045837"/>
+          <a:ext cx="164376" cy="450125"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7033,10 +7033,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="465012"/>
+                <a:pt x="0" y="450125"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="169812" y="465012"/>
+                <a:pt x="164376" y="450125"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -7077,8 +7077,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7964986" y="408856"/>
-          <a:ext cx="3583736" cy="260740"/>
+          <a:off x="4370568" y="397978"/>
+          <a:ext cx="3469011" cy="252393"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7092,13 +7092,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="130370"/>
+                <a:pt x="0" y="126196"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="3583736" y="130370"/>
+                <a:pt x="3469011" y="126196"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="3583736" y="260740"/>
+                <a:pt x="3469011" y="252393"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -7139,8 +7139,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9609258" y="1078140"/>
-          <a:ext cx="181210" cy="3046666"/>
+          <a:off x="5962202" y="1045837"/>
+          <a:ext cx="175409" cy="2949135"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7154,10 +7154,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="3046666"/>
+                <a:pt x="0" y="2949135"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="181210" y="3046666"/>
+                <a:pt x="175409" y="2949135"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -7198,8 +7198,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9609258" y="1078140"/>
-          <a:ext cx="169812" cy="2492546"/>
+          <a:off x="5962202" y="1045837"/>
+          <a:ext cx="164376" cy="2412753"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7213,10 +7213,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="2492546"/>
+                <a:pt x="0" y="2412753"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="169812" y="2492546"/>
+                <a:pt x="164376" y="2412753"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -7257,8 +7257,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9609258" y="1078140"/>
-          <a:ext cx="169812" cy="1803579"/>
+          <a:off x="5962202" y="1045837"/>
+          <a:ext cx="164376" cy="1745842"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7272,10 +7272,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1803579"/>
+                <a:pt x="0" y="1745842"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="169812" y="1803579"/>
+                <a:pt x="164376" y="1745842"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -7316,8 +7316,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9609258" y="1078140"/>
-          <a:ext cx="169812" cy="1134296"/>
+          <a:off x="5962202" y="1045837"/>
+          <a:ext cx="164376" cy="1097984"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7331,10 +7331,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1134296"/>
+                <a:pt x="0" y="1097984"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="169812" y="1134296"/>
+                <a:pt x="164376" y="1097984"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -7375,8 +7375,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9609258" y="1078140"/>
-          <a:ext cx="169812" cy="465012"/>
+          <a:off x="5962202" y="1045837"/>
+          <a:ext cx="164376" cy="450125"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7390,10 +7390,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="465012"/>
+                <a:pt x="0" y="450125"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="169812" y="465012"/>
+                <a:pt x="164376" y="450125"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -7434,8 +7434,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7964986" y="408856"/>
-          <a:ext cx="2097105" cy="260740"/>
+          <a:off x="4370568" y="397978"/>
+          <a:ext cx="2029971" cy="252393"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7449,13 +7449,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="130370"/>
+                <a:pt x="0" y="126196"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="2097105" y="130370"/>
+                <a:pt x="2029971" y="126196"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="2097105" y="260740"/>
+                <a:pt x="2029971" y="252393"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -7496,8 +7496,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8117849" y="993349"/>
-          <a:ext cx="341744" cy="5267348"/>
+          <a:off x="4518537" y="963761"/>
+          <a:ext cx="330803" cy="5098726"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7511,10 +7511,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="5267348"/>
+                <a:pt x="0" y="5098726"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="341744" y="5267348"/>
+                <a:pt x="330803" y="5098726"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -7555,8 +7555,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8117849" y="993349"/>
-          <a:ext cx="177167" cy="4793678"/>
+          <a:off x="4518537" y="963761"/>
+          <a:ext cx="171495" cy="4640220"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7570,10 +7570,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="4793678"/>
+                <a:pt x="0" y="4640220"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="177167" y="4793678"/>
+                <a:pt x="171495" y="4640220"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -7614,8 +7614,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8117849" y="993349"/>
-          <a:ext cx="155140" cy="4230211"/>
+          <a:off x="4518537" y="963761"/>
+          <a:ext cx="150174" cy="4094791"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7629,10 +7629,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="4230211"/>
+                <a:pt x="0" y="4094791"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="155140" y="4230211"/>
+                <a:pt x="150174" y="4094791"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -7673,8 +7673,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8117849" y="993349"/>
-          <a:ext cx="469333" cy="3726504"/>
+          <a:off x="4518537" y="963761"/>
+          <a:ext cx="454308" cy="3607209"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7688,10 +7688,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="3726504"/>
+                <a:pt x="0" y="3607209"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="469333" y="3726504"/>
+                <a:pt x="454308" y="3607209"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -7732,8 +7732,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8117849" y="993349"/>
-          <a:ext cx="186243" cy="3142147"/>
+          <a:off x="4518537" y="963761"/>
+          <a:ext cx="180281" cy="3041559"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7747,10 +7747,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="3142147"/>
+                <a:pt x="0" y="3041559"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="186243" y="3142147"/>
+                <a:pt x="180281" y="3041559"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -7787,8 +7787,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8117849" y="993349"/>
-          <a:ext cx="186243" cy="2472863"/>
+          <a:off x="4518537" y="963761"/>
+          <a:ext cx="180281" cy="2393700"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7802,10 +7802,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="2472863"/>
+                <a:pt x="0" y="2393700"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="186243" y="2472863"/>
+                <a:pt x="180281" y="2393700"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -7842,8 +7842,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8117849" y="993349"/>
-          <a:ext cx="186243" cy="1803579"/>
+          <a:off x="4518537" y="963761"/>
+          <a:ext cx="180281" cy="1745842"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7857,10 +7857,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1803579"/>
+                <a:pt x="0" y="1745842"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="186243" y="1803579"/>
+                <a:pt x="180281" y="1745842"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -7897,8 +7897,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8117849" y="993349"/>
-          <a:ext cx="186168" cy="1136847"/>
+          <a:off x="4518537" y="963761"/>
+          <a:ext cx="180209" cy="1100454"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7912,10 +7912,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1136847"/>
+                <a:pt x="0" y="1100454"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="186168" y="1136847"/>
+                <a:pt x="180209" y="1100454"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -7956,8 +7956,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8117849" y="993349"/>
-          <a:ext cx="186243" cy="465012"/>
+          <a:off x="4518537" y="963761"/>
+          <a:ext cx="180281" cy="450125"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7971,10 +7971,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="465012"/>
+                <a:pt x="0" y="450125"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="186243" y="465012"/>
+                <a:pt x="180281" y="450125"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -8011,8 +8011,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7964986" y="408856"/>
-          <a:ext cx="649511" cy="260740"/>
+          <a:off x="4370568" y="397978"/>
+          <a:ext cx="628718" cy="252393"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8026,13 +8026,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="130370"/>
+                <a:pt x="0" y="126196"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="649511" y="130370"/>
+                <a:pt x="628718" y="126196"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="649511" y="260740"/>
+                <a:pt x="628718" y="252393"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -8073,8 +8073,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6331897" y="1078140"/>
-          <a:ext cx="192360" cy="4488993"/>
+          <a:off x="2789758" y="1045837"/>
+          <a:ext cx="186202" cy="4345289"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8088,10 +8088,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="4488993"/>
+                <a:pt x="0" y="4345289"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="192360" y="4488993"/>
+                <a:pt x="186202" y="4345289"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -8132,8 +8132,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6331897" y="1078140"/>
-          <a:ext cx="169812" cy="3811431"/>
+          <a:off x="2789758" y="1045837"/>
+          <a:ext cx="164376" cy="3689417"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8147,10 +8147,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="3811431"/>
+                <a:pt x="0" y="3689417"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="169812" y="3811431"/>
+                <a:pt x="164376" y="3689417"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -8191,8 +8191,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6331897" y="1078140"/>
-          <a:ext cx="169812" cy="3142147"/>
+          <a:off x="2789758" y="1045837"/>
+          <a:ext cx="164376" cy="3041559"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8206,10 +8206,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="3142147"/>
+                <a:pt x="0" y="3041559"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="169812" y="3142147"/>
+                <a:pt x="164376" y="3041559"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -8250,8 +8250,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6331897" y="1078140"/>
-          <a:ext cx="169812" cy="2472863"/>
+          <a:off x="2789758" y="1045837"/>
+          <a:ext cx="164376" cy="2393700"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8265,10 +8265,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="2472863"/>
+                <a:pt x="0" y="2393700"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="169812" y="2472863"/>
+                <a:pt x="164376" y="2393700"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -8309,8 +8309,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6331897" y="1078140"/>
-          <a:ext cx="161133" cy="1803579"/>
+          <a:off x="2789758" y="1045837"/>
+          <a:ext cx="155975" cy="1745842"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8324,10 +8324,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1803579"/>
+                <a:pt x="0" y="1745842"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="161133" y="1803579"/>
+                <a:pt x="155975" y="1745842"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -8368,8 +8368,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6331897" y="1078140"/>
-          <a:ext cx="442398" cy="1126480"/>
+          <a:off x="2789758" y="1045837"/>
+          <a:ext cx="428236" cy="1090418"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8383,10 +8383,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1126480"/>
+                <a:pt x="0" y="1090418"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="442398" y="1126480"/>
+                <a:pt x="428236" y="1090418"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -8427,8 +8427,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6331897" y="1078140"/>
-          <a:ext cx="169812" cy="465012"/>
+          <a:off x="2789758" y="1045837"/>
+          <a:ext cx="164376" cy="450125"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8442,10 +8442,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="465012"/>
+                <a:pt x="0" y="450125"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="169812" y="465012"/>
+                <a:pt x="164376" y="450125"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -8486,8 +8486,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6784732" y="408856"/>
-          <a:ext cx="1180254" cy="260740"/>
+          <a:off x="3228096" y="397978"/>
+          <a:ext cx="1142471" cy="252393"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8498,16 +8498,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="1180254" y="0"/>
+                <a:pt x="1142471" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1180254" y="130370"/>
+                <a:pt x="1142471" y="126196"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="130370"/>
+                <a:pt x="0" y="126196"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="260740"/>
+                <a:pt x="0" y="252393"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -8548,8 +8548,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4939071" y="1078140"/>
-          <a:ext cx="453312" cy="5653650"/>
+          <a:off x="1441520" y="1045837"/>
+          <a:ext cx="438800" cy="5472662"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8563,10 +8563,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="5653650"/>
+                <a:pt x="0" y="5472662"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="453312" y="5653650"/>
+                <a:pt x="438800" y="5472662"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -8607,8 +8607,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4939071" y="1078140"/>
-          <a:ext cx="462835" cy="5281710"/>
+          <a:off x="1441520" y="1045837"/>
+          <a:ext cx="448019" cy="5112629"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8622,10 +8622,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="5281710"/>
+                <a:pt x="0" y="5112629"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="462835" y="5281710"/>
+                <a:pt x="448019" y="5112629"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -8666,8 +8666,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4939071" y="1078140"/>
-          <a:ext cx="440772" cy="4827512"/>
+          <a:off x="1441520" y="1045837"/>
+          <a:ext cx="426661" cy="4672971"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8681,10 +8681,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="4827512"/>
+                <a:pt x="0" y="4672971"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="440772" y="4827512"/>
+                <a:pt x="426661" y="4672971"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -8725,8 +8725,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4939071" y="1078140"/>
-          <a:ext cx="450295" cy="4371272"/>
+          <a:off x="1441520" y="1045837"/>
+          <a:ext cx="435880" cy="4231336"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8740,10 +8740,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="4371272"/>
+                <a:pt x="0" y="4231336"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="450295" y="4371272"/>
+                <a:pt x="435880" y="4231336"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -8784,8 +8784,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4939071" y="1078140"/>
-          <a:ext cx="176765" cy="3811431"/>
+          <a:off x="1441520" y="1045837"/>
+          <a:ext cx="171107" cy="3689417"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8799,10 +8799,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="3811431"/>
+                <a:pt x="0" y="3689417"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="176765" y="3811431"/>
+                <a:pt x="171107" y="3689417"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -8843,8 +8843,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4939071" y="1078140"/>
-          <a:ext cx="169812" cy="3142147"/>
+          <a:off x="1441520" y="1045837"/>
+          <a:ext cx="164376" cy="3041559"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8858,10 +8858,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="3142147"/>
+                <a:pt x="0" y="3041559"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="169812" y="3142147"/>
+                <a:pt x="164376" y="3041559"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -8898,8 +8898,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4939071" y="1078140"/>
-          <a:ext cx="169812" cy="2472863"/>
+          <a:off x="1441520" y="1045837"/>
+          <a:ext cx="164376" cy="2393700"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8913,10 +8913,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="2472863"/>
+                <a:pt x="0" y="2393700"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="169812" y="2472863"/>
+                <a:pt x="164376" y="2393700"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -8953,8 +8953,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4939071" y="1078140"/>
-          <a:ext cx="169812" cy="1803579"/>
+          <a:off x="1441520" y="1045837"/>
+          <a:ext cx="164376" cy="1745842"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8968,10 +8968,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1803579"/>
+                <a:pt x="0" y="1745842"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="169812" y="1803579"/>
+                <a:pt x="164376" y="1745842"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -9008,8 +9008,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4939071" y="1078140"/>
-          <a:ext cx="169812" cy="1134296"/>
+          <a:off x="1441520" y="1045837"/>
+          <a:ext cx="164376" cy="1097984"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9023,10 +9023,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1134296"/>
+                <a:pt x="0" y="1097984"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="169812" y="1134296"/>
+                <a:pt x="164376" y="1097984"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -9063,8 +9063,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4939071" y="1078140"/>
-          <a:ext cx="169812" cy="465012"/>
+          <a:off x="1441520" y="1045837"/>
+          <a:ext cx="164376" cy="450125"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9078,10 +9078,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="465012"/>
+                <a:pt x="0" y="450125"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="169812" y="465012"/>
+                <a:pt x="164376" y="450125"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -9118,8 +9118,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5391905" y="408856"/>
-          <a:ext cx="2573081" cy="260740"/>
+          <a:off x="1879858" y="397978"/>
+          <a:ext cx="2490710" cy="252393"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9130,16 +9130,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="2573081" y="0"/>
+                <a:pt x="2490710" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="2573081" y="130370"/>
+                <a:pt x="2490710" y="126196"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="130370"/>
+                <a:pt x="0" y="126196"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="260740"/>
+                <a:pt x="0" y="252393"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -9180,8 +9180,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3546244" y="1078140"/>
-          <a:ext cx="169812" cy="3811431"/>
+          <a:off x="109584" y="1045837"/>
+          <a:ext cx="148074" cy="3689417"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9195,10 +9195,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="3811431"/>
+                <a:pt x="0" y="3689417"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="169812" y="3811431"/>
+                <a:pt x="148074" y="3689417"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -9239,8 +9239,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3546244" y="1078140"/>
-          <a:ext cx="169812" cy="3142147"/>
+          <a:off x="109584" y="1045837"/>
+          <a:ext cx="148074" cy="3041559"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9254,10 +9254,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="3142147"/>
+                <a:pt x="0" y="3041559"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="169812" y="3142147"/>
+                <a:pt x="148074" y="3041559"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -9298,8 +9298,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3546244" y="1078140"/>
-          <a:ext cx="169812" cy="2472863"/>
+          <a:off x="109584" y="1045837"/>
+          <a:ext cx="148074" cy="2393700"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9313,10 +9313,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="2472863"/>
+                <a:pt x="0" y="2393700"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="169812" y="2472863"/>
+                <a:pt x="148074" y="2393700"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -9357,8 +9357,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3546244" y="1078140"/>
-          <a:ext cx="169812" cy="1803579"/>
+          <a:off x="109584" y="1045837"/>
+          <a:ext cx="148074" cy="1745842"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9372,10 +9372,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1803579"/>
+                <a:pt x="0" y="1745842"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="169812" y="1803579"/>
+                <a:pt x="148074" y="1745842"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -9416,8 +9416,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3546244" y="1078140"/>
-          <a:ext cx="169812" cy="1134296"/>
+          <a:off x="109584" y="1045837"/>
+          <a:ext cx="148074" cy="1097984"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9431,10 +9431,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1134296"/>
+                <a:pt x="0" y="1097984"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="169812" y="1134296"/>
+                <a:pt x="148074" y="1097984"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -9475,8 +9475,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3546244" y="1078140"/>
-          <a:ext cx="169812" cy="465012"/>
+          <a:off x="109584" y="1045837"/>
+          <a:ext cx="148074" cy="450125"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9490,10 +9490,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="465012"/>
+                <a:pt x="0" y="450125"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="169812" y="465012"/>
+                <a:pt x="148074" y="450125"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -9534,8 +9534,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3999079" y="408856"/>
-          <a:ext cx="3965907" cy="260740"/>
+          <a:off x="547922" y="397978"/>
+          <a:ext cx="3822646" cy="252393"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9546,16 +9546,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="3965907" y="0"/>
+                <a:pt x="3822646" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="3965907" y="130370"/>
+                <a:pt x="3822646" y="126196"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="130370"/>
+                <a:pt x="0" y="126196"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="260740"/>
+                <a:pt x="0" y="252393"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -9596,8 +9596,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7068523" y="312"/>
-          <a:ext cx="1792926" cy="408543"/>
+          <a:off x="3502803" y="2514"/>
+          <a:ext cx="1735530" cy="395464"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9655,8 +9655,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7068523" y="312"/>
-        <a:ext cx="1792926" cy="408543"/>
+        <a:off x="3502803" y="2514"/>
+        <a:ext cx="1735530" cy="395464"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{A294EF6A-E375-41F0-9B2F-9C47A6A279A7}">
@@ -9666,8 +9666,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3433036" y="669596"/>
-          <a:ext cx="1132086" cy="408543"/>
+          <a:off x="0" y="650372"/>
+          <a:ext cx="1095844" cy="395464"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9729,8 +9729,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3433036" y="669596"/>
-        <a:ext cx="1132086" cy="408543"/>
+        <a:off x="0" y="650372"/>
+        <a:ext cx="1095844" cy="395464"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{C4FD0AE7-EFAB-4261-9EC0-D58AC311CD5E}">
@@ -9740,8 +9740,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3716057" y="1338880"/>
-          <a:ext cx="1132086" cy="408543"/>
+          <a:off x="257658" y="1298230"/>
+          <a:ext cx="1095844" cy="395464"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9803,8 +9803,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3716057" y="1338880"/>
-        <a:ext cx="1132086" cy="408543"/>
+        <a:off x="257658" y="1298230"/>
+        <a:ext cx="1095844" cy="395464"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{5C77EB8F-5884-4CD7-AE49-6552C73709FA}">
@@ -9814,8 +9814,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3716057" y="2008164"/>
-          <a:ext cx="1132086" cy="408543"/>
+          <a:off x="257658" y="1946089"/>
+          <a:ext cx="1095844" cy="395464"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9877,8 +9877,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3716057" y="2008164"/>
-        <a:ext cx="1132086" cy="408543"/>
+        <a:off x="257658" y="1946089"/>
+        <a:ext cx="1095844" cy="395464"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{9F136EA8-626A-422D-BBA2-8EAFFBDFDC27}">
@@ -9888,8 +9888,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3716057" y="2677448"/>
-          <a:ext cx="1132086" cy="408543"/>
+          <a:off x="257658" y="2593947"/>
+          <a:ext cx="1095844" cy="395464"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9951,8 +9951,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3716057" y="2677448"/>
-        <a:ext cx="1132086" cy="408543"/>
+        <a:off x="257658" y="2593947"/>
+        <a:ext cx="1095844" cy="395464"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{5670B96D-1E6B-4D40-81AA-97D3CCCA02B1}">
@@ -9962,8 +9962,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3716057" y="3346732"/>
-          <a:ext cx="1132086" cy="408543"/>
+          <a:off x="257658" y="3241805"/>
+          <a:ext cx="1095844" cy="395464"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10025,8 +10025,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3716057" y="3346732"/>
-        <a:ext cx="1132086" cy="408543"/>
+        <a:off x="257658" y="3241805"/>
+        <a:ext cx="1095844" cy="395464"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{2B2AC049-3FA8-40C6-AEBE-D135802D6C24}">
@@ -10036,8 +10036,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3716057" y="4016016"/>
-          <a:ext cx="1132086" cy="408543"/>
+          <a:off x="257658" y="3889664"/>
+          <a:ext cx="1095844" cy="395464"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10099,8 +10099,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3716057" y="4016016"/>
-        <a:ext cx="1132086" cy="408543"/>
+        <a:off x="257658" y="3889664"/>
+        <a:ext cx="1095844" cy="395464"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{48C51540-7DB5-42D0-8485-4D7C7F0156A5}">
@@ -10110,8 +10110,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3716057" y="4685299"/>
-          <a:ext cx="1132086" cy="408543"/>
+          <a:off x="257658" y="4537522"/>
+          <a:ext cx="1095844" cy="395464"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10173,8 +10173,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3716057" y="4685299"/>
-        <a:ext cx="1132086" cy="408543"/>
+        <a:off x="257658" y="4537522"/>
+        <a:ext cx="1095844" cy="395464"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{20ED8B1D-025E-4F7F-85C9-56D91FB41E65}">
@@ -10184,8 +10184,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4825862" y="669596"/>
-          <a:ext cx="1132086" cy="408543"/>
+          <a:off x="1331935" y="650372"/>
+          <a:ext cx="1095844" cy="395464"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10247,8 +10247,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4825862" y="669596"/>
-        <a:ext cx="1132086" cy="408543"/>
+        <a:off x="1331935" y="650372"/>
+        <a:ext cx="1095844" cy="395464"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{4D43A06B-15E3-4B81-9A63-01AF65C8BD55}">
@@ -10258,8 +10258,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5108884" y="1338880"/>
-          <a:ext cx="1132086" cy="408543"/>
+          <a:off x="1605897" y="1298230"/>
+          <a:ext cx="1095844" cy="395464"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10321,8 +10321,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5108884" y="1338880"/>
-        <a:ext cx="1132086" cy="408543"/>
+        <a:off x="1605897" y="1298230"/>
+        <a:ext cx="1095844" cy="395464"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{60167C3B-7602-419E-9459-5DD50941A3BE}">
@@ -10332,8 +10332,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5108884" y="2008164"/>
-          <a:ext cx="1132086" cy="408543"/>
+          <a:off x="1605897" y="1946089"/>
+          <a:ext cx="1095844" cy="395464"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10395,8 +10395,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5108884" y="2008164"/>
-        <a:ext cx="1132086" cy="408543"/>
+        <a:off x="1605897" y="1946089"/>
+        <a:ext cx="1095844" cy="395464"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{A93197D8-F529-49E8-8C5E-D7132C46C136}">
@@ -10406,8 +10406,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5108884" y="2677448"/>
-          <a:ext cx="1132086" cy="408543"/>
+          <a:off x="1605897" y="2593947"/>
+          <a:ext cx="1095844" cy="395464"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10469,8 +10469,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5108884" y="2677448"/>
-        <a:ext cx="1132086" cy="408543"/>
+        <a:off x="1605897" y="2593947"/>
+        <a:ext cx="1095844" cy="395464"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{0A7B8C6B-0466-4116-90AE-0B8ABC40B8A3}">
@@ -10480,8 +10480,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5108884" y="3346732"/>
-          <a:ext cx="1132086" cy="408543"/>
+          <a:off x="1605897" y="3241805"/>
+          <a:ext cx="1095844" cy="395464"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10543,8 +10543,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5108884" y="3346732"/>
-        <a:ext cx="1132086" cy="408543"/>
+        <a:off x="1605897" y="3241805"/>
+        <a:ext cx="1095844" cy="395464"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{3E304437-7093-4B0F-80F2-A1F079E0A9AD}">
@@ -10554,8 +10554,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5108884" y="4016016"/>
-          <a:ext cx="1132086" cy="408543"/>
+          <a:off x="1605897" y="3889664"/>
+          <a:ext cx="1095844" cy="395464"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10617,8 +10617,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5108884" y="4016016"/>
-        <a:ext cx="1132086" cy="408543"/>
+        <a:off x="1605897" y="3889664"/>
+        <a:ext cx="1095844" cy="395464"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{3E3E20FC-966E-4839-94C7-F7DE73921297}">
@@ -10628,8 +10628,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5115837" y="4685299"/>
-          <a:ext cx="1132086" cy="408543"/>
+          <a:off x="1612627" y="4537522"/>
+          <a:ext cx="1095844" cy="395464"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10691,8 +10691,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5115837" y="4685299"/>
-        <a:ext cx="1132086" cy="408543"/>
+        <a:off x="1612627" y="4537522"/>
+        <a:ext cx="1095844" cy="395464"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{D43C1C1F-C8E2-48C4-856C-29552D2AC3AC}">
@@ -10702,8 +10702,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5389366" y="5245141"/>
-          <a:ext cx="835027" cy="408543"/>
+          <a:off x="1877400" y="5079441"/>
+          <a:ext cx="808296" cy="395464"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10770,8 +10770,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5389366" y="5245141"/>
-        <a:ext cx="835027" cy="408543"/>
+        <a:off x="1877400" y="5079441"/>
+        <a:ext cx="808296" cy="395464"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{B3980D37-F05D-41AA-99A8-32704D0F102D}">
@@ -10781,8 +10781,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5379843" y="5701381"/>
-          <a:ext cx="835027" cy="408543"/>
+          <a:off x="1868182" y="5521076"/>
+          <a:ext cx="808296" cy="395464"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10844,8 +10844,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5379843" y="5701381"/>
-        <a:ext cx="835027" cy="408543"/>
+        <a:off x="1868182" y="5521076"/>
+        <a:ext cx="808296" cy="395464"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{26ABF2A7-EE63-426E-AF9A-635B6CDE09F2}">
@@ -10855,8 +10855,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5401906" y="6204238"/>
-          <a:ext cx="1241621" cy="311224"/>
+          <a:off x="1889539" y="6007835"/>
+          <a:ext cx="1201874" cy="301261"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10918,8 +10918,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5401906" y="6204238"/>
-        <a:ext cx="1241621" cy="311224"/>
+        <a:off x="1889539" y="6007835"/>
+        <a:ext cx="1201874" cy="301261"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{ADEE1DCA-DBFE-40AF-A927-8BC82000D1DA}">
@@ -10929,8 +10929,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5392383" y="6576178"/>
-          <a:ext cx="1241621" cy="311224"/>
+          <a:off x="1880321" y="6367868"/>
+          <a:ext cx="1201874" cy="301261"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10992,8 +10992,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5392383" y="6576178"/>
-        <a:ext cx="1241621" cy="311224"/>
+        <a:off x="1880321" y="6367868"/>
+        <a:ext cx="1201874" cy="301261"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{9236F01D-27BD-4EF4-A838-B8B3B8B7C6C8}">
@@ -11003,8 +11003,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6218689" y="669596"/>
-          <a:ext cx="1132086" cy="408543"/>
+          <a:off x="2680174" y="650372"/>
+          <a:ext cx="1095844" cy="395464"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11066,8 +11066,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6218689" y="669596"/>
-        <a:ext cx="1132086" cy="408543"/>
+        <a:off x="2680174" y="650372"/>
+        <a:ext cx="1095844" cy="395464"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{C10F490F-1B7F-40C6-866D-625C49A0EE0D}">
@@ -11077,8 +11077,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6501710" y="1338880"/>
-          <a:ext cx="1132086" cy="408543"/>
+          <a:off x="2954135" y="1298230"/>
+          <a:ext cx="1095844" cy="395464"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11140,8 +11140,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6501710" y="1338880"/>
-        <a:ext cx="1132086" cy="408543"/>
+        <a:off x="2954135" y="1298230"/>
+        <a:ext cx="1095844" cy="395464"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{8EA731B9-503B-4154-857B-07709B1E3943}">
@@ -11151,8 +11151,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6774296" y="2000348"/>
-          <a:ext cx="975740" cy="408543"/>
+          <a:off x="3217995" y="1938523"/>
+          <a:ext cx="944504" cy="395464"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11214,8 +11214,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6774296" y="2000348"/>
-        <a:ext cx="975740" cy="408543"/>
+        <a:off x="3217995" y="1938523"/>
+        <a:ext cx="944504" cy="395464"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{EFE5EA48-FAC4-472F-B086-9F4655A06E3A}">
@@ -11225,8 +11225,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6493031" y="2677448"/>
-          <a:ext cx="1132086" cy="408543"/>
+          <a:off x="2945734" y="2593947"/>
+          <a:ext cx="1095844" cy="395464"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11288,8 +11288,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6493031" y="2677448"/>
-        <a:ext cx="1132086" cy="408543"/>
+        <a:off x="2945734" y="2593947"/>
+        <a:ext cx="1095844" cy="395464"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{E89FFE49-BE08-4772-8F61-59527DA65CB8}">
@@ -11299,8 +11299,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6501710" y="3346732"/>
-          <a:ext cx="1132086" cy="408543"/>
+          <a:off x="2954135" y="3241805"/>
+          <a:ext cx="1095844" cy="395464"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11375,8 +11375,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6501710" y="3346732"/>
-        <a:ext cx="1132086" cy="408543"/>
+        <a:off x="2954135" y="3241805"/>
+        <a:ext cx="1095844" cy="395464"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{E44CCC77-B77D-4AE1-843D-C21491183C21}">
@@ -11386,8 +11386,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6501710" y="4016016"/>
-          <a:ext cx="1132086" cy="408543"/>
+          <a:off x="2954135" y="3889664"/>
+          <a:ext cx="1095844" cy="395464"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11462,8 +11462,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6501710" y="4016016"/>
-        <a:ext cx="1132086" cy="408543"/>
+        <a:off x="2954135" y="3889664"/>
+        <a:ext cx="1095844" cy="395464"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{EB18E4AF-C5A7-4B01-A803-9A18B9522567}">
@@ -11473,8 +11473,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6501710" y="4685299"/>
-          <a:ext cx="1132086" cy="408543"/>
+          <a:off x="2954135" y="4537522"/>
+          <a:ext cx="1095844" cy="395464"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11549,8 +11549,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6501710" y="4685299"/>
-        <a:ext cx="1132086" cy="408543"/>
+        <a:off x="2954135" y="4537522"/>
+        <a:ext cx="1095844" cy="395464"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{D215955E-493C-42BD-B084-A56C1E5EC2D1}">
@@ -11560,8 +11560,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6524258" y="5354583"/>
-          <a:ext cx="985723" cy="425100"/>
+          <a:off x="2975961" y="5185380"/>
+          <a:ext cx="954168" cy="411491"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11623,8 +11623,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6524258" y="5354583"/>
-        <a:ext cx="985723" cy="425100"/>
+        <a:off x="2975961" y="5185380"/>
+        <a:ext cx="954168" cy="411491"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{4EC648F7-C8CC-4383-B0FA-CBFF9F668D66}">
@@ -11634,8 +11634,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7993687" y="669596"/>
-          <a:ext cx="1241621" cy="323752"/>
+          <a:off x="4398349" y="650372"/>
+          <a:ext cx="1201874" cy="313388"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11713,8 +11713,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7993687" y="669596"/>
-        <a:ext cx="1241621" cy="323752"/>
+        <a:off x="4398349" y="650372"/>
+        <a:ext cx="1201874" cy="313388"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{4CA19BF7-328C-41F7-A35A-05EDEC5E95AA}">
@@ -11724,8 +11724,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8304092" y="1254090"/>
-          <a:ext cx="1132086" cy="408543"/>
+          <a:off x="4698818" y="1216154"/>
+          <a:ext cx="1095844" cy="395464"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11787,8 +11787,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8304092" y="1254090"/>
-        <a:ext cx="1132086" cy="408543"/>
+        <a:off x="4698818" y="1216154"/>
+        <a:ext cx="1095844" cy="395464"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{C8148549-02F2-4097-A5CE-9F282F9785E5}">
@@ -11798,8 +11798,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8304018" y="1925925"/>
-          <a:ext cx="1112729" cy="408543"/>
+          <a:off x="4698746" y="1866483"/>
+          <a:ext cx="1077107" cy="395464"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11861,8 +11861,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8304018" y="1925925"/>
-        <a:ext cx="1112729" cy="408543"/>
+        <a:off x="4698746" y="1866483"/>
+        <a:ext cx="1077107" cy="395464"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{44740168-58C8-4F57-99BA-1FEEC62DFEEF}">
@@ -11872,8 +11872,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8304092" y="2592658"/>
-          <a:ext cx="1132086" cy="408543"/>
+          <a:off x="4698818" y="2511871"/>
+          <a:ext cx="1095844" cy="395464"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11935,8 +11935,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8304092" y="2592658"/>
-        <a:ext cx="1132086" cy="408543"/>
+        <a:off x="4698818" y="2511871"/>
+        <a:ext cx="1095844" cy="395464"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{A55CCA66-E2BE-42AD-8149-0F476EB393FB}">
@@ -11946,8 +11946,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8304092" y="3261941"/>
-          <a:ext cx="1132086" cy="408543"/>
+          <a:off x="4698818" y="3159729"/>
+          <a:ext cx="1095844" cy="395464"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12009,8 +12009,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8304092" y="3261941"/>
-        <a:ext cx="1132086" cy="408543"/>
+        <a:off x="4698818" y="3159729"/>
+        <a:ext cx="1095844" cy="395464"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{25B59411-2A6A-4A1D-B654-8EE48A66F338}">
@@ -12020,8 +12020,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8304092" y="3931225"/>
-          <a:ext cx="1132086" cy="408543"/>
+          <a:off x="4698818" y="3807588"/>
+          <a:ext cx="1095844" cy="395464"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12084,8 +12084,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8304092" y="3931225"/>
-        <a:ext cx="1132086" cy="408543"/>
+        <a:off x="4698818" y="3807588"/>
+        <a:ext cx="1095844" cy="395464"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{C576DA94-E0B1-489B-B23D-05BC2E5BF5B5}">
@@ -12095,8 +12095,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8587182" y="4515582"/>
-          <a:ext cx="1132086" cy="408543"/>
+          <a:off x="4972845" y="4373238"/>
+          <a:ext cx="1095844" cy="395464"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12159,8 +12159,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8587182" y="4515582"/>
-        <a:ext cx="1132086" cy="408543"/>
+        <a:off x="4972845" y="4373238"/>
+        <a:ext cx="1095844" cy="395464"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{09A6EB00-343E-4F18-9ABA-1CFCA9AEE9F6}">
@@ -12170,8 +12170,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8272989" y="5027453"/>
-          <a:ext cx="1431999" cy="392215"/>
+          <a:off x="4668711" y="4868723"/>
+          <a:ext cx="1386157" cy="379660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12245,8 +12245,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8272989" y="5027453"/>
-        <a:ext cx="1431999" cy="392215"/>
+        <a:off x="4668711" y="4868723"/>
+        <a:ext cx="1386157" cy="379660"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{E279A439-CF65-452C-9D7D-D92BA163D203}">
@@ -12256,8 +12256,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8295016" y="5614349"/>
-          <a:ext cx="1477182" cy="345357"/>
+          <a:off x="4690032" y="5436831"/>
+          <a:ext cx="1429893" cy="334301"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12331,8 +12331,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8295016" y="5614349"/>
-        <a:ext cx="1477182" cy="345357"/>
+        <a:off x="4690032" y="5436831"/>
+        <a:ext cx="1429893" cy="334301"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{5C06F881-C817-48B0-923D-28A95E1A55ED}">
@@ -12342,8 +12342,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8459593" y="6083093"/>
-          <a:ext cx="1598451" cy="355209"/>
+          <a:off x="4849341" y="5890568"/>
+          <a:ext cx="1547280" cy="343838"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12417,8 +12417,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8459593" y="6083093"/>
-        <a:ext cx="1598451" cy="355209"/>
+        <a:off x="4849341" y="5890568"/>
+        <a:ext cx="1547280" cy="343838"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{B0E3FA36-2D0A-48E1-BCD6-A0FEB829D960}">
@@ -12428,8 +12428,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9496049" y="669596"/>
-          <a:ext cx="1132086" cy="408543"/>
+          <a:off x="5852617" y="650372"/>
+          <a:ext cx="1095844" cy="395464"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12491,8 +12491,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="9496049" y="669596"/>
-        <a:ext cx="1132086" cy="408543"/>
+        <a:off x="5852617" y="650372"/>
+        <a:ext cx="1095844" cy="395464"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{570B6056-BA63-43B4-8367-D3B15B5F2B2F}">
@@ -12502,8 +12502,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9779071" y="1338880"/>
-          <a:ext cx="1132086" cy="408543"/>
+          <a:off x="6126579" y="1298230"/>
+          <a:ext cx="1095844" cy="395464"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12565,8 +12565,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="9779071" y="1338880"/>
-        <a:ext cx="1132086" cy="408543"/>
+        <a:off x="6126579" y="1298230"/>
+        <a:ext cx="1095844" cy="395464"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{1015E59C-ECBF-4572-B9B0-B11107C4F804}">
@@ -12576,8 +12576,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9779071" y="2008164"/>
-          <a:ext cx="1132086" cy="408543"/>
+          <a:off x="6126579" y="1946089"/>
+          <a:ext cx="1095844" cy="395464"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12639,8 +12639,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="9779071" y="2008164"/>
-        <a:ext cx="1132086" cy="408543"/>
+        <a:off x="6126579" y="1946089"/>
+        <a:ext cx="1095844" cy="395464"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{C95F679D-2319-4198-8240-421530579B36}">
@@ -12650,8 +12650,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9779071" y="2677448"/>
-          <a:ext cx="1132086" cy="408543"/>
+          <a:off x="6126579" y="2593947"/>
+          <a:ext cx="1095844" cy="395464"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12713,8 +12713,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="9779071" y="2677448"/>
-        <a:ext cx="1132086" cy="408543"/>
+        <a:off x="6126579" y="2593947"/>
+        <a:ext cx="1095844" cy="395464"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{5335F961-C541-4AEB-A239-FD5966856E70}">
@@ -12724,8 +12724,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9779071" y="3346732"/>
-          <a:ext cx="1225890" cy="447908"/>
+          <a:off x="6126579" y="3241805"/>
+          <a:ext cx="1186646" cy="433570"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12787,8 +12787,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="9779071" y="3346732"/>
-        <a:ext cx="1225890" cy="447908"/>
+        <a:off x="6126579" y="3241805"/>
+        <a:ext cx="1186646" cy="433570"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{C57AB6DF-28C8-439D-BA03-D61356EF49F4}">
@@ -12798,8 +12798,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9790469" y="3961577"/>
-          <a:ext cx="1074164" cy="326459"/>
+          <a:off x="6137612" y="3836968"/>
+          <a:ext cx="1039777" cy="316008"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12861,8 +12861,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="9790469" y="3961577"/>
-        <a:ext cx="1074164" cy="326459"/>
+        <a:off x="6137612" y="3836968"/>
+        <a:ext cx="1039777" cy="316008"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{97CC60B3-D1A0-4546-8665-06D80877C867}">
@@ -12872,8 +12872,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="10982680" y="669596"/>
-          <a:ext cx="1132086" cy="408543"/>
+          <a:off x="7291657" y="650372"/>
+          <a:ext cx="1095844" cy="395464"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12935,8 +12935,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="10982680" y="669596"/>
-        <a:ext cx="1132086" cy="408543"/>
+        <a:off x="7291657" y="650372"/>
+        <a:ext cx="1095844" cy="395464"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{4C5FCB83-E4D2-48D5-922E-69E88CF52F67}">
@@ -12946,8 +12946,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="11265702" y="1338880"/>
-          <a:ext cx="1132086" cy="408543"/>
+          <a:off x="7565619" y="1298230"/>
+          <a:ext cx="1095844" cy="395464"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13009,8 +13009,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="11265702" y="1338880"/>
-        <a:ext cx="1132086" cy="408543"/>
+        <a:off x="7565619" y="1298230"/>
+        <a:ext cx="1095844" cy="395464"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{95D02E21-CAAC-4CF6-BAF6-1E126C4F89EC}">
@@ -13020,8 +13020,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="11265702" y="2008164"/>
-          <a:ext cx="1132086" cy="408543"/>
+          <a:off x="7565619" y="1946089"/>
+          <a:ext cx="1095844" cy="395464"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13083,8 +13083,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="11265702" y="2008164"/>
-        <a:ext cx="1132086" cy="408543"/>
+        <a:off x="7565619" y="1946089"/>
+        <a:ext cx="1095844" cy="395464"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{C07D24C8-5991-40C4-B6BC-1D615E291C7B}">
@@ -13094,8 +13094,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="11265702" y="2677448"/>
-          <a:ext cx="1132086" cy="408543"/>
+          <a:off x="7565619" y="2593947"/>
+          <a:ext cx="1095844" cy="395464"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13157,8 +13157,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="11265702" y="2677448"/>
-        <a:ext cx="1132086" cy="408543"/>
+        <a:off x="7565619" y="2593947"/>
+        <a:ext cx="1095844" cy="395464"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{3A785887-6363-4D89-B4D5-0A6FC3E5F447}">
@@ -13168,8 +13168,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="11265702" y="3346732"/>
-          <a:ext cx="1225890" cy="447908"/>
+          <a:off x="7565619" y="3241805"/>
+          <a:ext cx="1186646" cy="433570"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13231,8 +13231,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="11265702" y="3346732"/>
-        <a:ext cx="1225890" cy="447908"/>
+        <a:off x="7565619" y="3241805"/>
+        <a:ext cx="1186646" cy="433570"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{C2151FD4-BD7A-4B0A-B5AF-DCCA545C4689}">
@@ -13242,8 +13242,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="11256365" y="3971944"/>
-          <a:ext cx="1074164" cy="326459"/>
+          <a:off x="7556581" y="3847003"/>
+          <a:ext cx="1039777" cy="316008"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13305,8 +13305,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="11256365" y="3971944"/>
-        <a:ext cx="1074164" cy="326459"/>
+        <a:off x="7556581" y="3847003"/>
+        <a:ext cx="1039777" cy="316008"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -15497,16 +15497,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>271945</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>71920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>68</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15833,8 +15833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C1F1C2-1876-47BC-9CCE-55185BFF8F11}">
   <dimension ref="A1:AU23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="P8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AK2" sqref="AK2:AO3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AT9" sqref="AT9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="15" customHeight="1"/>
